--- a/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
+++ b/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45432</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>
@@ -508,25 +508,81 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45530</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45558</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>40</v>
       </c>
     </row>
@@ -541,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,31 +619,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>40</v>
@@ -595,15 +651,15 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -611,9 +667,41 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
+++ b/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -703,6 +704,397 @@
       </c>
       <c r="B12" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.401891069727118</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.74816373845292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.786645325414139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.12642068421562</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.141141755291179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.81373740250532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.887598727978665</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.02657536466641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.165626000288203</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.45308884619443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.25099737799092</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.43545952143466</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.95494666994289</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.54441380489734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.24161855989757</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.97777751105575</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.82977225531105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.2975666374078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.96068290060986</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.25281483061599</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.07410268762527</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59.52211476717285</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.14979583610558</v>
+      </c>
+      <c r="D13" t="n">
+        <v>63.2439591806989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.99174365568077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>63.83426684822549</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.14046868021089</v>
+      </c>
+      <c r="D15" t="n">
+        <v>69.73707450858528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.05067829507013</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.52998252025851</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36.46349987971987</v>
+      </c>
+      <c r="D17" t="n">
+        <v>76.30143982863638</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37.79426829001281</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.49334833535777</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39.59647713991943</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77.7707478612122</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>39.12650259993435</v>
+      </c>
+      <c r="D20" t="n">
+        <v>78.51331102878335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.95218476135896</v>
+      </c>
+      <c r="D21" t="n">
+        <v>78.30783374023494</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="n">
+        <v>40.45405823266355</v>
+      </c>
+      <c r="D22" t="n">
+        <v>78.30045340939442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" t="n">
+        <v>40.5962238114616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>78.29190465943039</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="n">
+        <v>40.54525880409545</v>
+      </c>
+      <c r="D24" t="n">
+        <v>79.20805234824651</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>62</v>
+      </c>
+      <c r="C25" t="n">
+        <v>43.88636064083975</v>
+      </c>
+      <c r="D25" t="n">
+        <v>79.93102935078653</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>62</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42.72502737705257</v>
+      </c>
+      <c r="D26" t="n">
+        <v>81.74820429430106</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
+++ b/po_analysis_by_asin/B091ZG1ZC6_po_data.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,16 +736,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -754,12 +744,6 @@
       <c r="B2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.401891069727118</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.74816373845292</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -768,12 +752,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.786645325414139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.12642068421562</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -782,12 +760,6 @@
       <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.141141755291179</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.81373740250532</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -796,12 +768,6 @@
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.887598727978665</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.02657536466641</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -810,12 +776,6 @@
       <c r="B6" t="n">
         <v>30</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.165626000288203</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49.45308884619443</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -824,12 +784,6 @@
       <c r="B7" t="n">
         <v>31</v>
       </c>
-      <c r="C7" t="n">
-        <v>11.25099737799092</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.43545952143466</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -838,12 +792,6 @@
       <c r="B8" t="n">
         <v>32</v>
       </c>
-      <c r="C8" t="n">
-        <v>12.95494666994289</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51.54441380489734</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -852,12 +800,6 @@
       <c r="B9" t="n">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>14.24161855989757</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.97777751105575</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,12 +808,6 @@
       <c r="B10" t="n">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
-        <v>15.82977225531105</v>
-      </c>
-      <c r="D10" t="n">
-        <v>54.2975666374078</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -880,12 +816,6 @@
       <c r="B11" t="n">
         <v>37</v>
       </c>
-      <c r="C11" t="n">
-        <v>17.96068290060986</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55.25281483061599</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -894,12 +824,6 @@
       <c r="B12" t="n">
         <v>40</v>
       </c>
-      <c r="C12" t="n">
-        <v>20.07410268762527</v>
-      </c>
-      <c r="D12" t="n">
-        <v>59.52211476717285</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -908,12 +832,6 @@
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>25.14979583610558</v>
-      </c>
-      <c r="D13" t="n">
-        <v>63.2439591806989</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,12 +840,6 @@
       <c r="B14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
-        <v>25.99174365568077</v>
-      </c>
-      <c r="D14" t="n">
-        <v>63.83426684822549</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,12 +848,6 @@
       <c r="B15" t="n">
         <v>49</v>
       </c>
-      <c r="C15" t="n">
-        <v>31.14046868021089</v>
-      </c>
-      <c r="D15" t="n">
-        <v>69.73707450858528</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -950,12 +856,6 @@
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" t="n">
-        <v>34.05067829507013</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74.52998252025851</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -964,12 +864,6 @@
       <c r="B17" t="n">
         <v>56</v>
       </c>
-      <c r="C17" t="n">
-        <v>36.46349987971987</v>
-      </c>
-      <c r="D17" t="n">
-        <v>76.30143982863638</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -978,12 +872,6 @@
       <c r="B18" t="n">
         <v>57</v>
       </c>
-      <c r="C18" t="n">
-        <v>37.79426829001281</v>
-      </c>
-      <c r="D18" t="n">
-        <v>75.49334833535777</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -992,12 +880,6 @@
       <c r="B19" t="n">
         <v>58</v>
       </c>
-      <c r="C19" t="n">
-        <v>39.59647713991943</v>
-      </c>
-      <c r="D19" t="n">
-        <v>77.7707478612122</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1006,12 +888,6 @@
       <c r="B20" t="n">
         <v>59</v>
       </c>
-      <c r="C20" t="n">
-        <v>39.12650259993435</v>
-      </c>
-      <c r="D20" t="n">
-        <v>78.51331102878335</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1020,12 +896,6 @@
       <c r="B21" t="n">
         <v>59</v>
       </c>
-      <c r="C21" t="n">
-        <v>38.95218476135896</v>
-      </c>
-      <c r="D21" t="n">
-        <v>78.30783374023494</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1034,12 +904,6 @@
       <c r="B22" t="n">
         <v>60</v>
       </c>
-      <c r="C22" t="n">
-        <v>40.45405823266355</v>
-      </c>
-      <c r="D22" t="n">
-        <v>78.30045340939442</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1048,12 +912,6 @@
       <c r="B23" t="n">
         <v>60</v>
       </c>
-      <c r="C23" t="n">
-        <v>40.5962238114616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>78.29190465943039</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1062,12 +920,6 @@
       <c r="B24" t="n">
         <v>61</v>
       </c>
-      <c r="C24" t="n">
-        <v>40.54525880409545</v>
-      </c>
-      <c r="D24" t="n">
-        <v>79.20805234824651</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1076,12 +928,6 @@
       <c r="B25" t="n">
         <v>62</v>
       </c>
-      <c r="C25" t="n">
-        <v>43.88636064083975</v>
-      </c>
-      <c r="D25" t="n">
-        <v>79.93102935078653</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1089,12 +935,6 @@
       </c>
       <c r="B26" t="n">
         <v>62</v>
-      </c>
-      <c r="C26" t="n">
-        <v>42.72502737705257</v>
-      </c>
-      <c r="D26" t="n">
-        <v>81.74820429430106</v>
       </c>
     </row>
   </sheetData>
